--- a/src/calc-ref.xlsx
+++ b/src/calc-ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/VLOOK/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8425746-EE87-8F48-9C58-84E3CCAC44B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D69CC-1C52-314E-83B8-A9CE5A52D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="12100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rang-calc" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="3608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="3613">
   <si>
     <t>HEX</t>
   </si>
@@ -10966,35 +10966,6 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Microsoft YaHei Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位置步长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Consolas Regular"/>
-      </rPr>
-      <t xml:space="preserve">C1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Microsoft YaHei Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（导航中心头部）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
         <color rgb="FFC00000"/>
         <rFont val="Microsoft YaHei Regular"/>
         <charset val="134"/>
@@ -11159,6 +11130,57 @@
       </rPr>
       <t>脚注弹层更多内容遮罩高度</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Microsoft YaHei Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位置步长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Consolas Regular"/>
+      </rPr>
+      <t xml:space="preserve">C1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Microsoft YaHei Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（脚注底部）</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置步长A3
+（链接工具检查结果）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接工具检查结果头尾高度</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算结果A3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>css-A3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接工具检查结果更多内容高度</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11384,7 +11406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11492,6 +11514,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -51694,11 +51719,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -51709,15 +51734,15 @@
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="2" customWidth="1"/>
-    <col min="15" max="19" width="27.6640625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11" max="15" width="8" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="2" customWidth="1"/>
+    <col min="17" max="22" width="27.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="36">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="36">
       <c r="A1" s="3" t="s">
         <v>3587</v>
       </c>
@@ -51736,41 +51761,50 @@
       <c r="G1" s="3" t="s">
         <v>3592</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>3593</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
+        <v>3607</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>3594</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>3595</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>3610</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>3596</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>3597</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="Q1" s="16" t="s">
         <v>3598</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>3599</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="S1" s="16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>3600</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>3601</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="V1" s="19" t="s">
         <v>3602</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>30</v>
       </c>
@@ -51793,51 +51827,63 @@
         <v>38</v>
       </c>
       <c r="H2" s="14">
+        <f>ROUND(A11/SUM(A11:B11)*100,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I2" s="14">
         <f>ROUND(A5/SUM(A5:B5)*100,0)</f>
         <v>73</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <f>ROUND(A8/SUM(A8:B8)*100,0)</f>
         <v>57</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <f>F2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <f>G2</f>
         <v>38</v>
       </c>
-      <c r="L2" s="18">
+      <c r="M2" s="5">
         <f>H2</f>
+        <v>25</v>
+      </c>
+      <c r="N2" s="18">
+        <f>I2</f>
         <v>73</v>
       </c>
-      <c r="M2" s="20">
-        <f>I2</f>
+      <c r="O2" s="20">
+        <f>J2</f>
         <v>57</v>
       </c>
-      <c r="O2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;J2&amp;"%, "</f>
+      <c r="Q2" s="7" t="str">
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, </v>
       </c>
-      <c r="P2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
+      <c r="R2" s="7" t="str">
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, </v>
       </c>
-      <c r="Q2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+      <c r="S2" s="7" t="str">
+        <f t="shared" ref="S2:S17" si="0">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, </v>
+      </c>
+      <c r="T2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, </v>
       </c>
-      <c r="R2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;J2&amp;"%, "</f>
+      <c r="U2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
       </c>
-      <c r="S2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+      <c r="V2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;O2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, </v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="C3" s="8"/>
       <c r="D3" s="7">
         <v>1.2999999999999999E-2</v>
@@ -51850,60 +51896,72 @@
         <v>8.1</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:I3" si="0">$F3*(1-G$2/100)</f>
+        <f t="shared" ref="G3:J3" si="1">$F3*(1-G$2/100)</f>
         <v>5.0219999999999994</v>
       </c>
       <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>6.0749999999999993</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K17" si="2">F3+K2</f>
+        <v>8.1</v>
+      </c>
+      <c r="L3" s="5">
+        <f>G3+L2</f>
+        <v>43.021999999999998</v>
+      </c>
+      <c r="M3" s="5">
+        <f>H3+M2</f>
+        <v>31.074999999999999</v>
+      </c>
+      <c r="N3" s="18">
+        <f>I3+N2</f>
+        <v>75.186999999999998</v>
+      </c>
+      <c r="O3" s="20">
+        <f>J3+O2</f>
+        <v>60.482999999999997</v>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <f t="shared" ref="Q3:Q16" si="3">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, </v>
+      </c>
+      <c r="R3" s="7" t="str">
+        <f t="shared" ref="R3:S16" si="4">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, </v>
+      </c>
+      <c r="S3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4830000000000001</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J17" si="1">F3+J2</f>
-        <v>8.1</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:M3" si="2">G3+K2</f>
-        <v>43.021999999999998</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" si="2"/>
-        <v>75.186999999999998</v>
-      </c>
-      <c r="M3" s="20">
-        <f t="shared" si="2"/>
-        <v>60.482999999999997</v>
-      </c>
-      <c r="O3" s="7" t="str">
-        <f t="shared" ref="O3:O16" si="3">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;J3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, </v>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f t="shared" ref="P3:P16" si="4">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, </v>
-      </c>
-      <c r="Q3" s="7" t="str">
-        <f t="shared" ref="Q3:Q16" si="5">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 31.075%, </v>
+      </c>
+      <c r="T3" s="7" t="str">
+        <f t="shared" ref="T3:T16" si="5">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;N3&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, </v>
       </c>
-      <c r="R3" s="7" t="str">
-        <f t="shared" ref="R3:R16" si="6">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;J3&amp;"%, "</f>
+      <c r="U3" s="7" t="str">
+        <f t="shared" ref="U3:U16" si="6">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, </v>
       </c>
-      <c r="S3" s="7" t="str">
-        <f t="shared" ref="S3:S16" si="7">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;M3&amp;"%, "</f>
+      <c r="V3" s="7" t="str">
+        <f t="shared" ref="V3:V16" si="7">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;O3&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 60.483%, </v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="36">
+    <row r="4" spans="1:22" ht="36">
       <c r="A4" s="9" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>3604</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3605</v>
       </c>
       <c r="D4" s="7">
         <v>3.5999999999999997E-2</v>
@@ -51916,55 +51974,67 @@
         <v>7.4</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G17" si="9">$F4*(1-G$2/100)</f>
+        <f t="shared" ref="G4:H17" si="9">$F4*(1-G$2/100)</f>
         <v>4.5880000000000001</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H17" si="10">$F4*(1-H$2/100)</f>
+        <f t="shared" si="9"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I17" si="10">$F4*(1-I$2/100)</f>
         <v>1.9980000000000002</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I17" si="11">$F4*(1-I$2/100)</f>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J17" si="11">$F4*(1-J$2/100)</f>
         <v>3.1820000000000004</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="1"/>
+      <c r="K4" s="5">
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K17" si="12">G4+K3</f>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:M17" si="12">G4+L3</f>
         <v>47.61</v>
       </c>
-      <c r="L4" s="18">
-        <f t="shared" ref="L4:L17" si="13">H4+L3</f>
+      <c r="M4" s="5">
+        <f t="shared" si="12"/>
+        <v>36.625</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N17" si="13">I4+N3</f>
         <v>77.185000000000002</v>
       </c>
-      <c r="M4" s="20">
-        <f t="shared" ref="M4:M17" si="14">I4+M3</f>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O17" si="14">J4+O3</f>
         <v>63.664999999999999</v>
       </c>
-      <c r="O4" s="7" t="str">
+      <c r="Q4" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, </v>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="R4" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, </v>
       </c>
-      <c r="Q4" s="7" t="str">
+      <c r="S4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 36.625%, </v>
+      </c>
+      <c r="T4" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, </v>
       </c>
-      <c r="R4" s="7" t="str">
+      <c r="U4" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, </v>
       </c>
-      <c r="S4" s="7" t="str">
+      <c r="V4" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 63.665%, </v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="10">
         <v>80</v>
       </c>
@@ -51986,51 +52056,63 @@
         <v>4.34</v>
       </c>
       <c r="H5" s="7">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="10"/>
         <v>1.8900000000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <f t="shared" si="11"/>
         <v>3.0100000000000002</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="1"/>
+      <c r="K5" s="5">
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="12"/>
         <v>51.95</v>
       </c>
-      <c r="L5" s="18">
+      <c r="M5" s="5">
+        <f t="shared" si="12"/>
+        <v>41.875</v>
+      </c>
+      <c r="N5" s="18">
         <f t="shared" si="13"/>
         <v>79.075000000000003</v>
       </c>
-      <c r="M5" s="20">
+      <c r="O5" s="20">
         <f t="shared" si="14"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="O5" s="7" t="str">
+      <c r="Q5" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, </v>
       </c>
-      <c r="P5" s="7" t="str">
+      <c r="R5" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, </v>
       </c>
-      <c r="Q5" s="7" t="str">
+      <c r="S5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 41.875%, </v>
+      </c>
+      <c r="T5" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, </v>
       </c>
-      <c r="R5" s="7" t="str">
+      <c r="U5" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, </v>
       </c>
-      <c r="S5" s="7" t="str">
+      <c r="V5" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 66.675%, </v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="D6" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -52046,56 +52128,68 @@
         <v>4.03</v>
       </c>
       <c r="H6" s="7">
+        <f t="shared" si="9"/>
+        <v>4.875</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="10"/>
         <v>1.7550000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <f t="shared" si="11"/>
         <v>2.7950000000000004</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="12"/>
         <v>55.980000000000004</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M6" s="5">
+        <f t="shared" si="12"/>
+        <v>46.75</v>
+      </c>
+      <c r="N6" s="18">
         <f t="shared" si="13"/>
         <v>80.83</v>
       </c>
-      <c r="M6" s="20">
+      <c r="O6" s="20">
         <f t="shared" si="14"/>
         <v>69.47</v>
       </c>
-      <c r="O6" s="7" t="str">
+      <c r="Q6" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, </v>
       </c>
-      <c r="P6" s="7" t="str">
+      <c r="R6" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, </v>
       </c>
-      <c r="Q6" s="7" t="str">
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 46.75%, </v>
+      </c>
+      <c r="T6" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, </v>
       </c>
-      <c r="R6" s="7" t="str">
+      <c r="U6" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, </v>
       </c>
-      <c r="S6" s="7" t="str">
+      <c r="V6" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 69.47%, </v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="36">
+    <row r="7" spans="1:22" ht="36">
       <c r="A7" s="9" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>3606</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>3607</v>
       </c>
       <c r="D7" s="7">
         <v>8.4000000000000005E-2</v>
@@ -52112,51 +52206,63 @@
         <v>3.9059999999999997</v>
       </c>
       <c r="H7" s="7">
+        <f t="shared" si="9"/>
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="10"/>
         <v>1.7010000000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <f t="shared" si="11"/>
         <v>2.7090000000000001</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="1"/>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
         <v>35.299999999999997</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <f t="shared" si="12"/>
         <v>59.886000000000003</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M7" s="5">
+        <f t="shared" si="12"/>
+        <v>51.475000000000001</v>
+      </c>
+      <c r="N7" s="18">
         <f t="shared" si="13"/>
         <v>82.530999999999992</v>
       </c>
-      <c r="M7" s="20">
+      <c r="O7" s="20">
         <f t="shared" si="14"/>
         <v>72.179000000000002</v>
       </c>
-      <c r="O7" s="7" t="str">
+      <c r="Q7" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, </v>
       </c>
-      <c r="P7" s="7" t="str">
+      <c r="R7" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, </v>
       </c>
-      <c r="Q7" s="7" t="str">
+      <c r="S7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 51.475%, </v>
+      </c>
+      <c r="T7" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, </v>
       </c>
-      <c r="R7" s="7" t="str">
+      <c r="U7" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, </v>
       </c>
-      <c r="S7" s="7" t="str">
+      <c r="V7" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 72.179%, </v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8" s="10">
         <v>40</v>
       </c>
@@ -52178,51 +52284,63 @@
         <v>3.6580000000000004</v>
       </c>
       <c r="H8" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4250000000000007</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="10"/>
         <v>1.5930000000000002</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <f t="shared" si="11"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="1"/>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
         <v>41.199999999999996</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="12"/>
         <v>63.544000000000004</v>
       </c>
-      <c r="L8" s="18">
+      <c r="M8" s="5">
+        <f t="shared" si="12"/>
+        <v>55.900000000000006</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="13"/>
         <v>84.123999999999995</v>
       </c>
-      <c r="M8" s="20">
+      <c r="O8" s="20">
         <f t="shared" si="14"/>
         <v>74.716000000000008</v>
       </c>
-      <c r="O8" s="7" t="str">
+      <c r="Q8" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, </v>
       </c>
-      <c r="P8" s="7" t="str">
+      <c r="R8" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, </v>
       </c>
-      <c r="Q8" s="7" t="str">
+      <c r="S8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 55.9%, </v>
+      </c>
+      <c r="T8" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, </v>
       </c>
-      <c r="R8" s="7" t="str">
+      <c r="U8" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, </v>
       </c>
-      <c r="S8" s="7" t="str">
+      <c r="V8" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 74.716%, </v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="D9" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -52238,51 +52356,69 @@
         <v>3.6580000000000004</v>
       </c>
       <c r="H9" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4250000000000007</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="10"/>
         <v>1.5930000000000002</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="11"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="1"/>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
         <v>47.099999999999994</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <f t="shared" si="12"/>
         <v>67.201999999999998</v>
       </c>
-      <c r="L9" s="18">
+      <c r="M9" s="5">
+        <f t="shared" si="12"/>
+        <v>60.325000000000003</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="13"/>
         <v>85.716999999999999</v>
       </c>
-      <c r="M9" s="20">
+      <c r="O9" s="20">
         <f t="shared" si="14"/>
         <v>77.253000000000014</v>
       </c>
-      <c r="O9" s="7" t="str">
+      <c r="Q9" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, </v>
       </c>
-      <c r="P9" s="7" t="str">
+      <c r="R9" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, </v>
       </c>
-      <c r="Q9" s="7" t="str">
+      <c r="S9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 60.325%, </v>
+      </c>
+      <c r="T9" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, </v>
       </c>
-      <c r="R9" s="7" t="str">
+      <c r="U9" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, </v>
       </c>
-      <c r="S9" s="7" t="str">
+      <c r="V9" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 77.253%, </v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22" ht="36">
+      <c r="A10" s="36" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>3612</v>
+      </c>
       <c r="D10" s="7">
         <v>0.1</v>
       </c>
@@ -52298,51 +52434,69 @@
         <v>3.5960000000000001</v>
       </c>
       <c r="H10" s="7">
+        <f t="shared" si="9"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="10"/>
         <v>1.5660000000000001</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <f t="shared" si="11"/>
         <v>2.4940000000000002</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
         <v>52.899999999999991</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="12"/>
         <v>70.798000000000002</v>
       </c>
-      <c r="L10" s="18">
+      <c r="M10" s="5">
+        <f t="shared" si="12"/>
+        <v>64.674999999999997</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="13"/>
         <v>87.283000000000001</v>
       </c>
-      <c r="M10" s="20">
+      <c r="O10" s="20">
         <f t="shared" si="14"/>
         <v>79.747000000000014</v>
       </c>
-      <c r="O10" s="7" t="str">
+      <c r="Q10" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, </v>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="R10" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, </v>
       </c>
-      <c r="Q10" s="7" t="str">
+      <c r="S10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 64.675%, </v>
+      </c>
+      <c r="T10" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, </v>
       </c>
-      <c r="R10" s="7" t="str">
+      <c r="U10" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, </v>
       </c>
-      <c r="S10" s="7" t="str">
+      <c r="V10" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 79.747%, </v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>30</v>
+      </c>
       <c r="D11" s="7">
         <f>D9</f>
         <v>9.8000000000000004E-2</v>
@@ -52360,51 +52514,63 @@
         <v>3.6580000000000004</v>
       </c>
       <c r="H11" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4250000000000007</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="10"/>
         <v>1.5930000000000002</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <f t="shared" si="11"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
         <v>58.79999999999999</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <f t="shared" si="12"/>
         <v>74.456000000000003</v>
       </c>
-      <c r="L11" s="18">
+      <c r="M11" s="5">
+        <f t="shared" si="12"/>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="N11" s="18">
         <f t="shared" si="13"/>
         <v>88.876000000000005</v>
       </c>
-      <c r="M11" s="20">
+      <c r="O11" s="20">
         <f t="shared" si="14"/>
         <v>82.28400000000002</v>
       </c>
-      <c r="O11" s="7" t="str">
+      <c r="Q11" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, </v>
       </c>
-      <c r="P11" s="7" t="str">
+      <c r="R11" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, </v>
       </c>
-      <c r="Q11" s="7" t="str">
+      <c r="S11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 69.1%, </v>
+      </c>
+      <c r="T11" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, </v>
       </c>
-      <c r="R11" s="7" t="str">
+      <c r="U11" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, </v>
       </c>
-      <c r="S11" s="7" t="str">
+      <c r="V11" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 82.284%, </v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="D12" s="7">
         <f>D8</f>
         <v>9.2999999999999999E-2</v>
@@ -52422,51 +52588,63 @@
         <v>3.6580000000000004</v>
       </c>
       <c r="H12" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4250000000000007</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="10"/>
         <v>1.5930000000000002</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <f t="shared" si="11"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
         <v>64.699999999999989</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="12"/>
         <v>78.114000000000004</v>
       </c>
-      <c r="L12" s="18">
+      <c r="M12" s="5">
+        <f t="shared" si="12"/>
+        <v>73.524999999999991</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="13"/>
         <v>90.469000000000008</v>
       </c>
-      <c r="M12" s="20">
+      <c r="O12" s="20">
         <f t="shared" si="14"/>
         <v>84.821000000000026</v>
       </c>
-      <c r="O12" s="7" t="str">
+      <c r="Q12" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, </v>
       </c>
-      <c r="P12" s="7" t="str">
+      <c r="R12" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, </v>
       </c>
-      <c r="Q12" s="7" t="str">
+      <c r="S12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 73.525%, </v>
+      </c>
+      <c r="T12" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, </v>
       </c>
-      <c r="R12" s="7" t="str">
+      <c r="U12" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, </v>
       </c>
-      <c r="S12" s="7" t="str">
+      <c r="V12" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 84.821%, </v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="D13" s="7">
         <f>D7</f>
         <v>8.4000000000000005E-2</v>
@@ -52484,51 +52662,63 @@
         <v>3.9059999999999997</v>
       </c>
       <c r="H13" s="7">
+        <f t="shared" si="9"/>
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="10"/>
         <v>1.7010000000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <f t="shared" si="11"/>
         <v>2.7090000000000001</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="1"/>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
         <v>70.999999999999986</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <f t="shared" si="12"/>
         <v>82.02000000000001</v>
       </c>
-      <c r="L13" s="18">
+      <c r="M13" s="5">
+        <f t="shared" si="12"/>
+        <v>78.249999999999986</v>
+      </c>
+      <c r="N13" s="18">
         <f t="shared" si="13"/>
         <v>92.17</v>
       </c>
-      <c r="M13" s="20">
+      <c r="O13" s="20">
         <f t="shared" si="14"/>
         <v>87.53000000000003</v>
       </c>
-      <c r="O13" s="7" t="str">
+      <c r="Q13" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, </v>
       </c>
-      <c r="P13" s="7" t="str">
+      <c r="R13" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, </v>
       </c>
-      <c r="Q13" s="7" t="str">
+      <c r="S13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 78.25%, </v>
+      </c>
+      <c r="T13" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, </v>
       </c>
-      <c r="R13" s="7" t="str">
+      <c r="U13" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, </v>
       </c>
-      <c r="S13" s="7" t="str">
+      <c r="V13" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 87.53%, </v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="D14" s="7">
         <f>D6</f>
         <v>7.0999999999999994E-2</v>
@@ -52546,51 +52736,63 @@
         <v>4.03</v>
       </c>
       <c r="H14" s="7">
+        <f t="shared" si="9"/>
+        <v>4.875</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="10"/>
         <v>1.7550000000000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <f t="shared" si="11"/>
         <v>2.7950000000000004</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="1"/>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
         <v>77.499999999999986</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <f t="shared" si="12"/>
         <v>86.050000000000011</v>
       </c>
-      <c r="L14" s="18">
+      <c r="M14" s="5">
+        <f t="shared" si="12"/>
+        <v>83.124999999999986</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="13"/>
         <v>93.924999999999997</v>
       </c>
-      <c r="M14" s="20">
+      <c r="O14" s="20">
         <f t="shared" si="14"/>
         <v>90.325000000000031</v>
       </c>
-      <c r="O14" s="7" t="str">
+      <c r="Q14" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, </v>
       </c>
-      <c r="P14" s="7" t="str">
+      <c r="R14" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, </v>
       </c>
-      <c r="Q14" s="7" t="str">
+      <c r="S14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 83.125%, </v>
+      </c>
+      <c r="T14" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, </v>
       </c>
-      <c r="R14" s="7" t="str">
+      <c r="U14" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, </v>
       </c>
-      <c r="S14" s="7" t="str">
+      <c r="V14" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 90.325%, </v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="D15" s="7">
         <f>D5</f>
         <v>5.5E-2</v>
@@ -52608,51 +52810,63 @@
         <v>4.34</v>
       </c>
       <c r="H15" s="7">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="10"/>
         <v>1.8900000000000001</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <f t="shared" si="11"/>
         <v>3.0100000000000002</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="1"/>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
         <v>84.499999999999986</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="12"/>
         <v>90.390000000000015</v>
       </c>
-      <c r="L15" s="18">
+      <c r="M15" s="5">
+        <f t="shared" si="12"/>
+        <v>88.374999999999986</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="13"/>
         <v>95.814999999999998</v>
       </c>
-      <c r="M15" s="20">
+      <c r="O15" s="20">
         <f t="shared" si="14"/>
         <v>93.335000000000036</v>
       </c>
-      <c r="O15" s="7" t="str">
+      <c r="Q15" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, </v>
       </c>
-      <c r="P15" s="7" t="str">
+      <c r="R15" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, </v>
       </c>
-      <c r="Q15" s="7" t="str">
+      <c r="S15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 88.375%, </v>
+      </c>
+      <c r="T15" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, </v>
       </c>
-      <c r="R15" s="7" t="str">
+      <c r="U15" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, </v>
       </c>
-      <c r="S15" s="7" t="str">
+      <c r="V15" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 93.335%, </v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="D16" s="7">
         <f>D4</f>
         <v>3.5999999999999997E-2</v>
@@ -52670,51 +52884,63 @@
         <v>4.5880000000000001</v>
       </c>
       <c r="H16" s="7">
+        <f t="shared" si="9"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="10"/>
         <v>1.9980000000000002</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="11"/>
         <v>3.1820000000000004</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="1"/>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="12"/>
         <v>94.978000000000009</v>
       </c>
-      <c r="L16" s="18">
+      <c r="M16" s="5">
+        <f t="shared" si="12"/>
+        <v>93.924999999999983</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="13"/>
         <v>97.813000000000002</v>
       </c>
-      <c r="M16" s="20">
+      <c r="O16" s="20">
         <f t="shared" si="14"/>
         <v>96.517000000000039</v>
       </c>
-      <c r="O16" s="7" t="str">
+      <c r="Q16" s="7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, </v>
       </c>
-      <c r="P16" s="7" t="str">
+      <c r="R16" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, </v>
       </c>
-      <c r="Q16" s="7" t="str">
+      <c r="S16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 93.925%, </v>
+      </c>
+      <c r="T16" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, </v>
       </c>
-      <c r="R16" s="7" t="str">
+      <c r="U16" s="7" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, </v>
       </c>
-      <c r="S16" s="7" t="str">
+      <c r="V16" s="7" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 96.517%, </v>
       </c>
     </row>
-    <row r="17" spans="4:19">
+    <row r="17" spans="4:22">
       <c r="D17" s="7">
         <f>D3</f>
         <v>1.2999999999999999E-2</v>
@@ -52732,68 +52958,84 @@
         <v>5.0219999999999994</v>
       </c>
       <c r="H17" s="7">
+        <f t="shared" si="9"/>
+        <v>6.0749999999999993</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="10"/>
         <v>2.1869999999999998</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <f t="shared" si="11"/>
         <v>3.4830000000000001</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="1"/>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <f t="shared" si="12"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="L17" s="18">
+      <c r="M17" s="5">
+        <f t="shared" si="12"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="M17" s="20">
+      <c r="O17" s="20">
         <f t="shared" si="14"/>
         <v>100.00000000000004</v>
       </c>
-      <c r="O17" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;J17&amp;"%"</f>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
-      </c>
-      <c r="P17" s="7" t="str">
+      <c r="Q17" s="7" t="str">
         <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;K17&amp;"%"</f>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="Q17" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
-        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
-      </c>
       <c r="R17" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;J17&amp;"%"</f>
-        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
+        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
       <c r="S17" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;M17&amp;"%"</f>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-    </row>
-    <row r="20" spans="4:19" ht="408" customHeight="1">
-      <c r="O20" s="3" t="str">
-        <f t="shared" ref="O20:S20" si="16">_xlfn.CONCAT(O2:O17)</f>
+      <c r="T17" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;N17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;K17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="V17" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;O17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" ht="408" customHeight="1">
+      <c r="Q20" s="3" t="str">
+        <f t="shared" ref="Q20:V20" si="16">_xlfn.CONCAT(Q2:Q17)</f>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="P20" s="3" t="str">
+      <c r="R20" s="3" t="str">
         <f t="shared" si="16"/>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="Q20" s="12" t="str">
+      <c r="S20" s="3" t="str">
+        <f t="shared" ref="S20" si="17">_xlfn.CONCAT(S2:S17)</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 31.075%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 36.625%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 41.875%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 46.75%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 51.475%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 55.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 60.325%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 64.675%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 69.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 73.525%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 78.25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 83.125%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 88.375%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 93.925%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="T20" s="12" t="str">
         <f t="shared" si="16"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-      <c r="R20" s="3" t="str">
+      <c r="U20" s="3" t="str">
         <f t="shared" si="16"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-      <c r="S20" s="15" t="str">
+      <c r="V20" s="15" t="str">
         <f t="shared" si="16"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 60.483%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 63.665%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 66.675%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 69.47%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 72.179%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 74.716%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 77.253%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 79.747%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 82.284%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 84.821%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 87.53%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 90.325%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 93.335%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 96.517%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>

--- a/src/calc-ref.xlsx
+++ b/src/calc-ref.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/VLOOK/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D69CC-1C52-314E-83B8-A9CE5A52D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B3449-0511-094A-AFBA-2B0CBB4334CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="3613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3617">
   <si>
     <t>HEX</t>
   </si>
@@ -11159,35 +11159,52 @@
       </rPr>
       <t>（脚注底部）</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>位置步长A3
 （链接工具检查结果）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>链接工具检查结果头尾高度</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>计算结果A3</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>css-A3</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>链接工具检查结果更多内容高度</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部遮罩高度</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置步长D1
+（底部黑色遮罩）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>css-D1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算结果D1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11303,18 +11320,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF00B050"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF00B0F0"/>
       <name val="Microsoft YaHei Regular"/>
       <charset val="134"/>
@@ -11355,6 +11360,23 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5"/>
+      <name val="Consolas Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -11406,7 +11428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11515,8 +11537,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36159,7 +36190,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -42389,7 +42420,7 @@
       <c r="D1193" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51711,7 +51742,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51719,11 +51750,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -51735,14 +51766,14 @@
     <col min="5" max="5" width="6.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
     <col min="7" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" style="2" customWidth="1"/>
-    <col min="11" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="2" customWidth="1"/>
-    <col min="17" max="22" width="27.6640625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="9" max="11" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12" max="17" width="8" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="2" customWidth="1"/>
+    <col min="19" max="25" width="27.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="36">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="36">
       <c r="A1" s="3" t="s">
         <v>3587</v>
       </c>
@@ -51770,41 +51801,50 @@
       <c r="J1" s="15" t="s">
         <v>3607</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="37" t="s">
+        <v>3614</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>3594</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>3595</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>3610</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>3596</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>3597</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="38" t="s">
+        <v>3616</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>3598</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>3599</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>3611</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>3600</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>3601</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>3602</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="Y1" s="19" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="5">
         <v>30</v>
       </c>
@@ -51838,52 +51878,63 @@
         <f>ROUND(A8/SUM(A8:B8)*100,0)</f>
         <v>57</v>
       </c>
-      <c r="K2" s="5">
-        <f>F2</f>
+      <c r="K2" s="7">
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <f>G2</f>
+        <f t="shared" ref="L2:Q2" si="0">F2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="M2" s="5">
-        <f>H2</f>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N2" s="18">
-        <f>I2</f>
+      <c r="O2" s="18">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="O2" s="20">
-        <f>J2</f>
+      <c r="P2" s="20">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="Q2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
+      <c r="Q2" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="7" t="str">
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, </v>
       </c>
-      <c r="R2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+      <c r="T2" s="7" t="str">
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, </v>
       </c>
-      <c r="S2" s="7" t="str">
-        <f t="shared" ref="S2:S17" si="0">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+      <c r="U2" s="7" t="str">
+        <f t="shared" ref="U2:U16" si="1">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, </v>
-      </c>
-      <c r="T2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, </v>
-      </c>
-      <c r="U2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
       </c>
       <c r="V2" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;O2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, </v>
+      </c>
+      <c r="W2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
+      </c>
+      <c r="X2" s="7" t="str">
+        <f t="shared" ref="X2:X16" si="2">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;P2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, </v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="Y2" s="7" t="str">
+        <f>"rgba(0,0,0, "&amp;$E2&amp;") "&amp;Q2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(0,0,0, 1) 0%, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="C3" s="8"/>
       <c r="D3" s="7">
         <v>1.2999999999999999E-2</v>
@@ -51896,67 +51947,79 @@
         <v>8.1</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:J3" si="1">$F3*(1-G$2/100)</f>
+        <f t="shared" ref="G3:K17" si="3">$F3*(1-G$2/100)</f>
         <v>5.0219999999999994</v>
       </c>
       <c r="H3" s="7">
+        <f t="shared" si="3"/>
+        <v>6.0749999999999993</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L17" si="4">F3+L2</f>
+        <v>8.1</v>
+      </c>
+      <c r="M3" s="5">
+        <f>G3+M2</f>
+        <v>43.021999999999998</v>
+      </c>
+      <c r="N3" s="5">
+        <f>H3+N2</f>
+        <v>31.074999999999999</v>
+      </c>
+      <c r="O3" s="18">
+        <f>I3+O2</f>
+        <v>75.186999999999998</v>
+      </c>
+      <c r="P3" s="20">
+        <f>J3+P2</f>
+        <v>60.482999999999997</v>
+      </c>
+      <c r="Q3" s="39">
+        <f>K3+Q2</f>
+        <v>8.1</v>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f t="shared" ref="S3:S16" si="5">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, </v>
+      </c>
+      <c r="T3" s="7" t="str">
+        <f t="shared" ref="T3:T16" si="6">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;M3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, </v>
+      </c>
+      <c r="U3" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>6.0749999999999993</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
-        <v>3.4830000000000001</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K17" si="2">F3+K2</f>
-        <v>8.1</v>
-      </c>
-      <c r="L3" s="5">
-        <f>G3+L2</f>
-        <v>43.021999999999998</v>
-      </c>
-      <c r="M3" s="5">
-        <f>H3+M2</f>
-        <v>31.074999999999999</v>
-      </c>
-      <c r="N3" s="18">
-        <f>I3+N2</f>
-        <v>75.186999999999998</v>
-      </c>
-      <c r="O3" s="20">
-        <f>J3+O2</f>
-        <v>60.482999999999997</v>
-      </c>
-      <c r="Q3" s="7" t="str">
-        <f t="shared" ref="Q3:Q16" si="3">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, </v>
-      </c>
-      <c r="R3" s="7" t="str">
-        <f t="shared" ref="R3:S16" si="4">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, </v>
-      </c>
-      <c r="S3" s="7" t="str">
-        <f t="shared" si="0"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 31.075%, </v>
-      </c>
-      <c r="T3" s="7" t="str">
-        <f t="shared" ref="T3:T16" si="5">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;N3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, </v>
-      </c>
-      <c r="U3" s="7" t="str">
-        <f t="shared" ref="U3:U16" si="6">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, </v>
       </c>
       <c r="V3" s="7" t="str">
         <f t="shared" ref="V3:V16" si="7">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;O3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, </v>
+      </c>
+      <c r="W3" s="7" t="str">
+        <f t="shared" ref="W3:W16" si="8">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, </v>
+      </c>
+      <c r="X3" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 60.483%, </v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="36">
+      <c r="Y3" s="7" t="str">
+        <f t="shared" ref="Y3:Y16" si="9">"rgba(0,0,0, "&amp;$E3&amp;") "&amp;Q3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(0,0,0, 0.987) 8.1%, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="36">
       <c r="A4" s="9" t="s">
         <v>3603</v>
       </c>
@@ -51967,74 +52030,86 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E15" si="8">ROUND(E3-D4,3)</f>
+        <f t="shared" ref="E4:E15" si="10">ROUND(E3-D4,3)</f>
         <v>0.95099999999999996</v>
       </c>
       <c r="F4" s="7">
         <v>7.4</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:H17" si="9">$F4*(1-G$2/100)</f>
+        <f t="shared" ref="G4:H17" si="11">$F4*(1-G$2/100)</f>
         <v>4.5880000000000001</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5500000000000007</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I17" si="10">$F4*(1-I$2/100)</f>
+        <f t="shared" ref="I4:I17" si="12">$F4*(1-I$2/100)</f>
         <v>1.9980000000000002</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J17" si="11">$F4*(1-J$2/100)</f>
+        <f t="shared" ref="J4:J17" si="13">$F4*(1-J$2/100)</f>
         <v>3.1820000000000004</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
+      <c r="K4" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:M17" si="12">G4+L3</f>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M17" si="14">G4+M3</f>
         <v>47.61</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" si="12"/>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:N17" si="15">H4+N3</f>
         <v>36.625</v>
       </c>
-      <c r="N4" s="18">
-        <f t="shared" ref="N4:N17" si="13">I4+N3</f>
+      <c r="O4" s="18">
+        <f t="shared" ref="O4:O17" si="16">I4+O3</f>
         <v>77.185000000000002</v>
       </c>
-      <c r="O4" s="20">
-        <f t="shared" ref="O4:O17" si="14">J4+O3</f>
+      <c r="P4" s="20">
+        <f t="shared" ref="P4:Q17" si="17">J4+P3</f>
         <v>63.664999999999999</v>
       </c>
-      <c r="Q4" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="39">
+        <f t="shared" si="17"/>
+        <v>15.5</v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, </v>
       </c>
-      <c r="R4" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T4" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, </v>
       </c>
-      <c r="S4" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 36.625%, </v>
-      </c>
-      <c r="T4" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, </v>
-      </c>
-      <c r="U4" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, </v>
       </c>
       <c r="V4" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, </v>
+      </c>
+      <c r="W4" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, </v>
+      </c>
+      <c r="X4" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 63.665%, </v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="Y4" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.951) 15.5%, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="10">
         <v>80</v>
       </c>
@@ -52045,146 +52120,170 @@
         <v>5.5E-2</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89600000000000002</v>
       </c>
       <c r="F5" s="7">
         <v>7</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.34</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8900000000000001</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0100000000000002</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="2"/>
+      <c r="K5" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" si="12"/>
+      <c r="M5" s="5">
+        <f t="shared" si="14"/>
         <v>51.95</v>
       </c>
-      <c r="M5" s="5">
-        <f t="shared" si="12"/>
+      <c r="N5" s="5">
+        <f t="shared" si="15"/>
         <v>41.875</v>
       </c>
-      <c r="N5" s="18">
-        <f t="shared" si="13"/>
+      <c r="O5" s="18">
+        <f t="shared" si="16"/>
         <v>79.075000000000003</v>
       </c>
-      <c r="O5" s="20">
-        <f t="shared" si="14"/>
+      <c r="P5" s="20">
+        <f t="shared" si="17"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="Q5" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q5" s="39">
+        <f t="shared" si="17"/>
+        <v>22.5</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, </v>
       </c>
-      <c r="R5" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T5" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, </v>
       </c>
-      <c r="S5" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U5" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 41.875%, </v>
-      </c>
-      <c r="T5" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, </v>
-      </c>
-      <c r="U5" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, </v>
       </c>
       <c r="V5" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, </v>
+      </c>
+      <c r="W5" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, </v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 66.675%, </v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="Y5" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.896) 22.5%, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="D6" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="F6" s="7">
         <v>6.5</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.03</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.875</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7550000000000001</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7950000000000004</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
+      <c r="K6" s="7">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="12"/>
+      <c r="M6" s="5">
+        <f t="shared" si="14"/>
         <v>55.980000000000004</v>
       </c>
-      <c r="M6" s="5">
-        <f t="shared" si="12"/>
+      <c r="N6" s="5">
+        <f t="shared" si="15"/>
         <v>46.75</v>
       </c>
-      <c r="N6" s="18">
-        <f t="shared" si="13"/>
+      <c r="O6" s="18">
+        <f t="shared" si="16"/>
         <v>80.83</v>
       </c>
-      <c r="O6" s="20">
-        <f t="shared" si="14"/>
+      <c r="P6" s="20">
+        <f t="shared" si="17"/>
         <v>69.47</v>
       </c>
-      <c r="Q6" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q6" s="39">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, </v>
       </c>
-      <c r="R6" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T6" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, </v>
       </c>
-      <c r="S6" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 46.75%, </v>
-      </c>
-      <c r="T6" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, </v>
-      </c>
-      <c r="U6" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, </v>
       </c>
       <c r="V6" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, </v>
+      </c>
+      <c r="W6" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, </v>
+      </c>
+      <c r="X6" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 69.47%, </v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="36">
+      <c r="Y6" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.825) 29%, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="36">
       <c r="A7" s="9" t="s">
         <v>3605</v>
       </c>
@@ -52195,74 +52294,86 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="F7" s="7">
         <v>6.3</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9059999999999997</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7010000000000001</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7090000000000001</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="2"/>
+      <c r="K7" s="7">
+        <f t="shared" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
         <v>35.299999999999997</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" si="12"/>
+      <c r="M7" s="5">
+        <f t="shared" si="14"/>
         <v>59.886000000000003</v>
       </c>
-      <c r="M7" s="5">
-        <f t="shared" si="12"/>
+      <c r="N7" s="5">
+        <f t="shared" si="15"/>
         <v>51.475000000000001</v>
       </c>
-      <c r="N7" s="18">
-        <f t="shared" si="13"/>
+      <c r="O7" s="18">
+        <f t="shared" si="16"/>
         <v>82.530999999999992</v>
       </c>
-      <c r="O7" s="20">
-        <f t="shared" si="14"/>
+      <c r="P7" s="20">
+        <f t="shared" si="17"/>
         <v>72.179000000000002</v>
       </c>
-      <c r="Q7" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q7" s="39">
+        <f t="shared" si="17"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, </v>
       </c>
-      <c r="R7" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T7" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, </v>
       </c>
-      <c r="S7" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 51.475%, </v>
-      </c>
-      <c r="T7" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, </v>
-      </c>
-      <c r="U7" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, </v>
       </c>
       <c r="V7" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, </v>
+      </c>
+      <c r="W7" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, </v>
+      </c>
+      <c r="X7" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 72.179%, </v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="Y7" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.741) 35.3%, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="10">
         <v>40</v>
       </c>
@@ -52273,146 +52384,170 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.64800000000000002</v>
       </c>
       <c r="F8" s="7">
         <v>5.9</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6580000000000004</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4250000000000007</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5930000000000002</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="4"/>
         <v>41.199999999999996</v>
       </c>
-      <c r="L8" s="5">
-        <f t="shared" si="12"/>
+      <c r="M8" s="5">
+        <f t="shared" si="14"/>
         <v>63.544000000000004</v>
       </c>
-      <c r="M8" s="5">
-        <f t="shared" si="12"/>
+      <c r="N8" s="5">
+        <f t="shared" si="15"/>
         <v>55.900000000000006</v>
       </c>
-      <c r="N8" s="18">
-        <f t="shared" si="13"/>
+      <c r="O8" s="18">
+        <f t="shared" si="16"/>
         <v>84.123999999999995</v>
       </c>
-      <c r="O8" s="20">
-        <f t="shared" si="14"/>
+      <c r="P8" s="20">
+        <f t="shared" si="17"/>
         <v>74.716000000000008</v>
       </c>
-      <c r="Q8" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="39">
+        <f t="shared" si="17"/>
+        <v>41.199999999999996</v>
+      </c>
+      <c r="S8" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, </v>
       </c>
-      <c r="R8" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T8" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, </v>
       </c>
-      <c r="S8" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 55.9%, </v>
-      </c>
-      <c r="T8" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, </v>
-      </c>
-      <c r="U8" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, </v>
       </c>
       <c r="V8" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, </v>
+      </c>
+      <c r="W8" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, </v>
+      </c>
+      <c r="X8" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 74.716%, </v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="Y8" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.648) 41.2%, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="D9" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="F9" s="7">
         <v>5.9</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6580000000000004</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4250000000000007</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5930000000000002</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="2"/>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
         <v>47.099999999999994</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="12"/>
+      <c r="M9" s="5">
+        <f t="shared" si="14"/>
         <v>67.201999999999998</v>
       </c>
-      <c r="M9" s="5">
-        <f t="shared" si="12"/>
+      <c r="N9" s="5">
+        <f t="shared" si="15"/>
         <v>60.325000000000003</v>
       </c>
-      <c r="N9" s="18">
-        <f t="shared" si="13"/>
+      <c r="O9" s="18">
+        <f t="shared" si="16"/>
         <v>85.716999999999999</v>
       </c>
-      <c r="O9" s="20">
-        <f t="shared" si="14"/>
+      <c r="P9" s="20">
+        <f t="shared" si="17"/>
         <v>77.253000000000014</v>
       </c>
-      <c r="Q9" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q9" s="39">
+        <f t="shared" si="17"/>
+        <v>47.099999999999994</v>
+      </c>
+      <c r="S9" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, </v>
       </c>
-      <c r="R9" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T9" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, </v>
       </c>
-      <c r="S9" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U9" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 60.325%, </v>
-      </c>
-      <c r="T9" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, </v>
-      </c>
-      <c r="U9" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, </v>
       </c>
       <c r="V9" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, </v>
+      </c>
+      <c r="W9" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, </v>
+      </c>
+      <c r="X9" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 77.253%, </v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="36">
+      <c r="Y9" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.55) 47.1%, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="36">
       <c r="A10" s="36" t="s">
         <v>3609</v>
       </c>
@@ -52423,74 +52558,86 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
       <c r="F10" s="7">
         <v>5.8</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.5960000000000001</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5660000000000001</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4940000000000002</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
+      <c r="K10" s="7">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
         <v>52.899999999999991</v>
       </c>
-      <c r="L10" s="5">
-        <f t="shared" si="12"/>
+      <c r="M10" s="5">
+        <f t="shared" si="14"/>
         <v>70.798000000000002</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" si="12"/>
+      <c r="N10" s="5">
+        <f t="shared" si="15"/>
         <v>64.674999999999997</v>
       </c>
-      <c r="N10" s="18">
-        <f t="shared" si="13"/>
+      <c r="O10" s="18">
+        <f t="shared" si="16"/>
         <v>87.283000000000001</v>
       </c>
-      <c r="O10" s="20">
-        <f t="shared" si="14"/>
+      <c r="P10" s="20">
+        <f t="shared" si="17"/>
         <v>79.747000000000014</v>
       </c>
-      <c r="Q10" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="39">
+        <f t="shared" si="17"/>
+        <v>52.899999999999991</v>
+      </c>
+      <c r="S10" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, </v>
       </c>
-      <c r="R10" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T10" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, </v>
       </c>
-      <c r="S10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 64.675%, </v>
-      </c>
-      <c r="T10" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, </v>
-      </c>
-      <c r="U10" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, </v>
       </c>
       <c r="V10" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, </v>
+      </c>
+      <c r="W10" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, </v>
+      </c>
+      <c r="X10" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 79.747%, </v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="Y10" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.45) 52.9%, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -52502,7 +52649,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35199999999999998</v>
       </c>
       <c r="F11" s="7">
@@ -52510,73 +52657,85 @@
         <v>5.9</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6580000000000004</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4250000000000007</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5930000000000002</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="2"/>
+      <c r="K11" s="7">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
         <v>58.79999999999999</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="12"/>
+      <c r="M11" s="5">
+        <f t="shared" si="14"/>
         <v>74.456000000000003</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="12"/>
+      <c r="N11" s="5">
+        <f t="shared" si="15"/>
         <v>69.099999999999994</v>
       </c>
-      <c r="N11" s="18">
-        <f t="shared" si="13"/>
+      <c r="O11" s="18">
+        <f t="shared" si="16"/>
         <v>88.876000000000005</v>
       </c>
-      <c r="O11" s="20">
-        <f t="shared" si="14"/>
+      <c r="P11" s="20">
+        <f t="shared" si="17"/>
         <v>82.28400000000002</v>
       </c>
-      <c r="Q11" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="39">
+        <f t="shared" si="17"/>
+        <v>58.79999999999999</v>
+      </c>
+      <c r="S11" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, </v>
       </c>
-      <c r="R11" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T11" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, </v>
       </c>
-      <c r="S11" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U11" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 69.1%, </v>
-      </c>
-      <c r="T11" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, </v>
-      </c>
-      <c r="U11" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, </v>
       </c>
       <c r="V11" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, </v>
+      </c>
+      <c r="W11" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, </v>
+      </c>
+      <c r="X11" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 82.284%, </v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="Y11" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.352) 58.8%, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="D12" s="7">
         <f>D8</f>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="F12" s="7">
@@ -52584,73 +52743,88 @@
         <v>5.9</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6580000000000004</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4250000000000007</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5930000000000002</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
+      <c r="K12" s="7">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
         <v>64.699999999999989</v>
       </c>
-      <c r="L12" s="5">
-        <f t="shared" si="12"/>
+      <c r="M12" s="5">
+        <f t="shared" si="14"/>
         <v>78.114000000000004</v>
       </c>
-      <c r="M12" s="5">
-        <f t="shared" si="12"/>
+      <c r="N12" s="5">
+        <f t="shared" si="15"/>
         <v>73.524999999999991</v>
       </c>
-      <c r="N12" s="18">
-        <f t="shared" si="13"/>
+      <c r="O12" s="18">
+        <f t="shared" si="16"/>
         <v>90.469000000000008</v>
       </c>
-      <c r="O12" s="20">
-        <f t="shared" si="14"/>
+      <c r="P12" s="20">
+        <f t="shared" si="17"/>
         <v>84.821000000000026</v>
       </c>
-      <c r="Q12" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="39">
+        <f t="shared" si="17"/>
+        <v>64.699999999999989</v>
+      </c>
+      <c r="S12" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, </v>
       </c>
-      <c r="R12" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T12" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, </v>
       </c>
-      <c r="S12" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U12" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 73.525%, </v>
-      </c>
-      <c r="T12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, </v>
-      </c>
-      <c r="U12" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, </v>
       </c>
       <c r="V12" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, </v>
+      </c>
+      <c r="W12" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, </v>
+      </c>
+      <c r="X12" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 84.821%, </v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="Y12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.259) 64.7%, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="24">
+      <c r="B13" s="36" t="s">
+        <v>3613</v>
+      </c>
       <c r="D13" s="7">
         <f>D7</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="F13" s="7">
@@ -52658,73 +52832,88 @@
         <v>6.3</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9059999999999997</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7010000000000001</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7090000000000001</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
         <v>70.999999999999986</v>
       </c>
-      <c r="L13" s="5">
-        <f t="shared" si="12"/>
+      <c r="M13" s="5">
+        <f t="shared" si="14"/>
         <v>82.02000000000001</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" si="12"/>
+      <c r="N13" s="5">
+        <f t="shared" si="15"/>
         <v>78.249999999999986</v>
       </c>
-      <c r="N13" s="18">
-        <f t="shared" si="13"/>
+      <c r="O13" s="18">
+        <f t="shared" si="16"/>
         <v>92.17</v>
       </c>
-      <c r="O13" s="20">
-        <f t="shared" si="14"/>
+      <c r="P13" s="20">
+        <f t="shared" si="17"/>
         <v>87.53000000000003</v>
       </c>
-      <c r="Q13" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="39">
+        <f t="shared" si="17"/>
+        <v>70.999999999999986</v>
+      </c>
+      <c r="S13" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, </v>
       </c>
-      <c r="R13" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T13" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, </v>
       </c>
-      <c r="S13" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U13" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 78.25%, </v>
-      </c>
-      <c r="T13" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, </v>
-      </c>
-      <c r="U13" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, </v>
       </c>
       <c r="V13" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, </v>
+      </c>
+      <c r="W13" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, </v>
+      </c>
+      <c r="X13" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 87.53%, </v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="Y13" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.175) 71%, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14" s="10">
+        <v>70</v>
+      </c>
       <c r="D14" s="7">
         <f>D6</f>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.104</v>
       </c>
       <c r="F14" s="7">
@@ -52732,73 +52921,85 @@
         <v>6.5</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.03</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.875</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7550000000000001</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7950000000000004</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
+      <c r="K14" s="7">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
         <v>77.499999999999986</v>
       </c>
-      <c r="L14" s="5">
-        <f t="shared" si="12"/>
+      <c r="M14" s="5">
+        <f t="shared" si="14"/>
         <v>86.050000000000011</v>
       </c>
-      <c r="M14" s="5">
-        <f t="shared" si="12"/>
+      <c r="N14" s="5">
+        <f t="shared" si="15"/>
         <v>83.124999999999986</v>
       </c>
-      <c r="N14" s="18">
-        <f t="shared" si="13"/>
+      <c r="O14" s="18">
+        <f t="shared" si="16"/>
         <v>93.924999999999997</v>
       </c>
-      <c r="O14" s="20">
-        <f t="shared" si="14"/>
+      <c r="P14" s="20">
+        <f t="shared" si="17"/>
         <v>90.325000000000031</v>
       </c>
-      <c r="Q14" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q14" s="39">
+        <f t="shared" si="17"/>
+        <v>77.499999999999986</v>
+      </c>
+      <c r="S14" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, </v>
       </c>
-      <c r="R14" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T14" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, </v>
       </c>
-      <c r="S14" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U14" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 83.125%, </v>
-      </c>
-      <c r="T14" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, </v>
-      </c>
-      <c r="U14" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, </v>
       </c>
       <c r="V14" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, </v>
+      </c>
+      <c r="W14" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, </v>
+      </c>
+      <c r="X14" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 90.325%, </v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="Y14" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.104) 77.5%, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="D15" s="7">
         <f>D5</f>
         <v>5.5E-2</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F15" s="7">
@@ -52806,73 +53007,85 @@
         <v>7</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.34</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8900000000000001</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0100000000000002</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
+      <c r="K15" s="7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="4"/>
         <v>84.499999999999986</v>
       </c>
-      <c r="L15" s="5">
-        <f t="shared" si="12"/>
+      <c r="M15" s="5">
+        <f t="shared" si="14"/>
         <v>90.390000000000015</v>
       </c>
-      <c r="M15" s="5">
-        <f t="shared" si="12"/>
+      <c r="N15" s="5">
+        <f t="shared" si="15"/>
         <v>88.374999999999986</v>
       </c>
-      <c r="N15" s="18">
-        <f t="shared" si="13"/>
+      <c r="O15" s="18">
+        <f t="shared" si="16"/>
         <v>95.814999999999998</v>
       </c>
-      <c r="O15" s="20">
-        <f t="shared" si="14"/>
+      <c r="P15" s="20">
+        <f t="shared" si="17"/>
         <v>93.335000000000036</v>
       </c>
-      <c r="Q15" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="39">
+        <f t="shared" si="17"/>
+        <v>84.499999999999986</v>
+      </c>
+      <c r="S15" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, </v>
       </c>
-      <c r="R15" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T15" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, </v>
       </c>
-      <c r="S15" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 88.375%, </v>
-      </c>
-      <c r="T15" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, </v>
-      </c>
-      <c r="U15" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, </v>
       </c>
       <c r="V15" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, </v>
+      </c>
+      <c r="W15" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, </v>
+      </c>
+      <c r="X15" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 93.335%, </v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="Y15" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.049) 84.5%, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="D16" s="7">
         <f>D4</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" ref="E16:E17" si="15">ROUND(E15-D16,3)</f>
+        <f t="shared" ref="E16:E17" si="18">ROUND(E15-D16,3)</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F16" s="7">
@@ -52880,73 +53093,85 @@
         <v>7.4</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5880000000000001</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5500000000000007</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9980000000000002</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.1820000000000004</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
+      <c r="K16" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="L16" s="5">
-        <f t="shared" si="12"/>
+      <c r="M16" s="5">
+        <f t="shared" si="14"/>
         <v>94.978000000000009</v>
       </c>
-      <c r="M16" s="5">
-        <f t="shared" si="12"/>
+      <c r="N16" s="5">
+        <f t="shared" si="15"/>
         <v>93.924999999999983</v>
       </c>
-      <c r="N16" s="18">
-        <f t="shared" si="13"/>
+      <c r="O16" s="18">
+        <f t="shared" si="16"/>
         <v>97.813000000000002</v>
       </c>
-      <c r="O16" s="20">
-        <f t="shared" si="14"/>
+      <c r="P16" s="20">
+        <f t="shared" si="17"/>
         <v>96.517000000000039</v>
       </c>
-      <c r="Q16" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="39">
+        <f t="shared" si="17"/>
+        <v>91.899999999999991</v>
+      </c>
+      <c r="S16" s="7" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, </v>
       </c>
-      <c r="R16" s="7" t="str">
-        <f t="shared" si="4"/>
+      <c r="T16" s="7" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, </v>
       </c>
-      <c r="S16" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 93.925%, </v>
-      </c>
-      <c r="T16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, </v>
-      </c>
-      <c r="U16" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, </v>
       </c>
       <c r="V16" s="7" t="str">
         <f t="shared" si="7"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, </v>
+      </c>
+      <c r="W16" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, </v>
+      </c>
+      <c r="X16" s="7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 96.517%, </v>
       </c>
-    </row>
-    <row r="17" spans="4:22">
+      <c r="Y16" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">rgba(0,0,0, 0.013) 91.9%, </v>
+      </c>
+    </row>
+    <row r="17" spans="4:25">
       <c r="D17" s="7">
         <f>D3</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -52954,94 +53179,110 @@
         <v>8.1</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.0219999999999994</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.0749999999999993</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1869999999999998</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.4830000000000001</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
+      <c r="K17" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="4"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="12"/>
+      <c r="M17" s="5">
+        <f t="shared" si="14"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="M17" s="5">
-        <f t="shared" si="12"/>
+      <c r="N17" s="5">
+        <f t="shared" si="15"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" si="13"/>
+      <c r="O17" s="18">
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="O17" s="20">
-        <f t="shared" si="14"/>
+      <c r="P17" s="20">
+        <f t="shared" si="17"/>
         <v>100.00000000000004</v>
       </c>
-      <c r="Q17" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;K17&amp;"%"</f>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
-      </c>
-      <c r="R17" s="7" t="str">
+      <c r="Q17" s="39">
+        <f t="shared" si="17"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="S17" s="7" t="str">
         <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="S17" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;M17&amp;"%"</f>
-        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
-      </c>
       <c r="T17" s="7" t="str">
+        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;M17&amp;"%"</f>
+        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
+      </c>
+      <c r="U17" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;N17&amp;"%"</f>
-        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
-      </c>
-      <c r="U17" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;K17&amp;"%"</f>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="V17" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;O17&amp;"%"</f>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-    </row>
-    <row r="20" spans="4:22" ht="408" customHeight="1">
-      <c r="Q20" s="3" t="str">
-        <f t="shared" ref="Q20:V20" si="16">_xlfn.CONCAT(Q2:Q17)</f>
+      <c r="W17" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="X17" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;P17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="Y17" s="7" t="str">
+        <f>"rgba(0,0,0, "&amp;$E17&amp;") "&amp;Q17&amp;"%"</f>
+        <v>rgba(0,0,0, 0) 100%</v>
+      </c>
+    </row>
+    <row r="20" spans="4:25" ht="408" customHeight="1">
+      <c r="S20" s="3" t="str">
+        <f t="shared" ref="S20:X20" si="19">_xlfn.CONCAT(S2:S17)</f>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="R20" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="T20" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
       </c>
-      <c r="S20" s="3" t="str">
-        <f t="shared" ref="S20" si="17">_xlfn.CONCAT(S2:S17)</f>
+      <c r="U20" s="3" t="str">
+        <f t="shared" ref="U20" si="20">_xlfn.CONCAT(U2:U17)</f>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 31.075%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 36.625%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 41.875%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 46.75%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 51.475%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 55.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 60.325%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 64.675%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 69.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 73.525%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 78.25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 83.125%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 88.375%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 93.925%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-      <c r="T20" s="12" t="str">
-        <f t="shared" si="16"/>
+      <c r="V20" s="12" t="str">
+        <f t="shared" si="19"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-      <c r="U20" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="W20" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
-      <c r="V20" s="15" t="str">
-        <f t="shared" si="16"/>
+      <c r="X20" s="15" t="str">
+        <f t="shared" si="19"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 60.483%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 63.665%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 66.675%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 69.47%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 72.179%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 74.716%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 77.253%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 79.747%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 82.284%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 84.821%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 87.53%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 90.325%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 93.335%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 96.517%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
+      <c r="Y20" s="15" t="str">
+        <f t="shared" ref="Y20" si="21">_xlfn.CONCAT(Y2:Y17)</f>
+        <v>rgba(0,0,0, 1) 0%, rgba(0,0,0, 0.987) 8.1%, rgba(0,0,0, 0.951) 15.5%, rgba(0,0,0, 0.896) 22.5%, rgba(0,0,0, 0.825) 29%, rgba(0,0,0, 0.741) 35.3%, rgba(0,0,0, 0.648) 41.2%, rgba(0,0,0, 0.55) 47.1%, rgba(0,0,0, 0.45) 52.9%, rgba(0,0,0, 0.352) 58.8%, rgba(0,0,0, 0.259) 64.7%, rgba(0,0,0, 0.175) 71%, rgba(0,0,0, 0.104) 77.5%, rgba(0,0,0, 0.049) 84.5%, rgba(0,0,0, 0.013) 91.9%, rgba(0,0,0, 0) 100%</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/calc-ref.xlsx
+++ b/src/calc-ref.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/VLOOK/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B3449-0511-094A-AFBA-2B0CBB4334CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA657A2-879A-8142-AF60-463C32D28C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rang-calc" sheetId="4" r:id="rId1"/>
     <sheet name="rang-gen" sheetId="5" r:id="rId2"/>
     <sheet name="table" sheetId="1" r:id="rId3"/>
     <sheet name="linerGradientFade" sheetId="6" r:id="rId4"/>
+    <sheet name="linerGradientFade 2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="3617">
   <si>
     <t>HEX</t>
   </si>
@@ -11159,45 +11160,45 @@
       </rPr>
       <t>（脚注底部）</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>位置步长A3
 （链接工具检查结果）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>链接工具检查结果头尾高度</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>计算结果A3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>css-A3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>链接工具检查结果更多内容高度</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>底部遮罩高度</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>位置步长D1
 （底部黑色遮罩）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>css-D1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>计算结果D1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11319,18 +11320,6 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
@@ -11342,12 +11331,6 @@
       <sz val="20"/>
       <name val="Symbol"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -11375,6 +11358,24 @@
     <font>
       <sz val="8"/>
       <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
       <name val="Microsoft YaHei Regular"/>
       <charset val="134"/>
     </font>
@@ -11537,16 +11538,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36190,7 +36191,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -42420,7 +42421,7 @@
       <c r="D1193" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51742,7 +51743,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51752,9 +51753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -51769,7 +51770,13 @@
     <col min="9" max="11" width="8.6640625" style="2" customWidth="1"/>
     <col min="12" max="17" width="8" style="2" customWidth="1"/>
     <col min="18" max="18" width="3.33203125" style="2" customWidth="1"/>
-    <col min="19" max="25" width="27.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="41.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="45.83203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="45.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="44.1640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="46.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -51872,7 +51879,7 @@
       </c>
       <c r="I2" s="14">
         <f>ROUND(A5/SUM(A5:B5)*100,0)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J2" s="14">
         <f>ROUND(A8/SUM(A8:B8)*100,0)</f>
@@ -51895,7 +51902,7 @@
       </c>
       <c r="O2" s="18">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P2" s="20">
         <f t="shared" si="0"/>
@@ -51906,27 +51913,27 @@
         <v>0</v>
       </c>
       <c r="S2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, </v>
+        <f t="shared" ref="S2:S16" si="1">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
       </c>
       <c r="T2" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, </v>
+        <f t="shared" ref="T2:T16" si="2">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, </v>
       </c>
       <c r="U2" s="7" t="str">
-        <f t="shared" ref="U2:U16" si="1">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
+        <f t="shared" ref="U2:U16" si="3">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, </v>
       </c>
       <c r="V2" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;O2&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, </v>
       </c>
       <c r="W2" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
       </c>
       <c r="X2" s="7" t="str">
-        <f t="shared" ref="X2:X16" si="2">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;P2&amp;"%, "</f>
+        <f t="shared" ref="X2:X16" si="4">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;P2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, </v>
       </c>
       <c r="Y2" s="7" t="str">
@@ -51947,27 +51954,27 @@
         <v>8.1</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:K17" si="3">$F3*(1-G$2/100)</f>
+        <f t="shared" ref="G3:K17" si="5">$F3*(1-G$2/100)</f>
         <v>5.0219999999999994</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0749999999999993</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="3"/>
-        <v>2.1869999999999998</v>
+        <f t="shared" si="5"/>
+        <v>1.3770000000000002</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4830000000000001</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L17" si="4">F3+L2</f>
+        <f t="shared" ref="L3:L17" si="6">F3+L2</f>
         <v>8.1</v>
       </c>
       <c r="M3" s="5">
@@ -51980,7 +51987,7 @@
       </c>
       <c r="O3" s="18">
         <f>I3+O2</f>
-        <v>75.186999999999998</v>
+        <v>84.376999999999995</v>
       </c>
       <c r="P3" s="20">
         <f>J3+P2</f>
@@ -51991,27 +51998,27 @@
         <v>8.1</v>
       </c>
       <c r="S3" s="7" t="str">
-        <f t="shared" ref="S3:S16" si="5">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, </v>
       </c>
       <c r="T3" s="7" t="str">
-        <f t="shared" ref="T3:T16" si="6">"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E3&amp;") "&amp;M3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 43.022%, </v>
       </c>
       <c r="U3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 31.075%, </v>
       </c>
       <c r="V3" s="7" t="str">
         <f t="shared" ref="V3:V16" si="7">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;O3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 84.377%, </v>
       </c>
       <c r="W3" s="7" t="str">
         <f t="shared" ref="W3:W16" si="8">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, </v>
       </c>
       <c r="X3" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 60.483%, </v>
       </c>
       <c r="Y3" s="7" t="str">
@@ -52046,18 +52053,18 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I17" si="12">$F4*(1-I$2/100)</f>
-        <v>1.9980000000000002</v>
+        <v>1.2580000000000005</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J17" si="13">$F4*(1-J$2/100)</f>
         <v>3.1820000000000004</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
       <c r="M4" s="5">
@@ -52070,7 +52077,7 @@
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O17" si="16">I4+O3</f>
-        <v>77.185000000000002</v>
+        <v>85.634999999999991</v>
       </c>
       <c r="P4" s="20">
         <f t="shared" ref="P4:Q17" si="17">J4+P3</f>
@@ -52081,27 +52088,27 @@
         <v>15.5</v>
       </c>
       <c r="S4" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, </v>
       </c>
       <c r="T4" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 47.61%, </v>
       </c>
       <c r="U4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 36.625%, </v>
       </c>
       <c r="V4" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 85.635%, </v>
       </c>
       <c r="W4" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, </v>
       </c>
       <c r="X4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 63.665%, </v>
       </c>
       <c r="Y4" s="7" t="str">
@@ -52111,10 +52118,10 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="10">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
         <v>5.5E-2</v>
@@ -52136,18 +52143,18 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" si="12"/>
-        <v>1.8900000000000001</v>
+        <v>1.1900000000000004</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="13"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.5</v>
       </c>
       <c r="M5" s="5">
@@ -52160,7 +52167,7 @@
       </c>
       <c r="O5" s="18">
         <f t="shared" si="16"/>
-        <v>79.075000000000003</v>
+        <v>86.824999999999989</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="17"/>
@@ -52171,27 +52178,27 @@
         <v>22.5</v>
       </c>
       <c r="S5" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, </v>
       </c>
       <c r="T5" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 51.95%, </v>
       </c>
       <c r="U5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 41.875%, </v>
       </c>
       <c r="V5" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 86.825%, </v>
       </c>
       <c r="W5" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, </v>
       </c>
       <c r="X5" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 66.675%, </v>
       </c>
       <c r="Y5" s="7" t="str">
@@ -52220,18 +52227,18 @@
       </c>
       <c r="I6" s="7">
         <f t="shared" si="12"/>
-        <v>1.7550000000000001</v>
+        <v>1.1050000000000002</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="13"/>
         <v>2.7950000000000004</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="M6" s="5">
@@ -52244,7 +52251,7 @@
       </c>
       <c r="O6" s="18">
         <f t="shared" si="16"/>
-        <v>80.83</v>
+        <v>87.929999999999993</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="17"/>
@@ -52255,27 +52262,27 @@
         <v>29</v>
       </c>
       <c r="S6" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, </v>
       </c>
       <c r="T6" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 55.98%, </v>
       </c>
       <c r="U6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 46.75%, </v>
       </c>
       <c r="V6" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 87.93%, </v>
       </c>
       <c r="W6" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, </v>
       </c>
       <c r="X6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 69.47%, </v>
       </c>
       <c r="Y6" s="7" t="str">
@@ -52310,18 +52317,18 @@
       </c>
       <c r="I7" s="7">
         <f t="shared" si="12"/>
-        <v>1.7010000000000001</v>
+        <v>1.0710000000000002</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="13"/>
         <v>2.7090000000000001</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.299999999999997</v>
       </c>
       <c r="M7" s="5">
@@ -52334,7 +52341,7 @@
       </c>
       <c r="O7" s="18">
         <f t="shared" si="16"/>
-        <v>82.530999999999992</v>
+        <v>89.000999999999991</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="17"/>
@@ -52345,27 +52352,27 @@
         <v>35.299999999999997</v>
       </c>
       <c r="S7" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, </v>
       </c>
       <c r="T7" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 59.886%, </v>
       </c>
       <c r="U7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 51.475%, </v>
       </c>
       <c r="V7" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 89.001%, </v>
       </c>
       <c r="W7" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, </v>
       </c>
       <c r="X7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 72.179%, </v>
       </c>
       <c r="Y7" s="7" t="str">
@@ -52400,18 +52407,18 @@
       </c>
       <c r="I8" s="7">
         <f t="shared" si="12"/>
-        <v>1.5930000000000002</v>
+        <v>1.0030000000000003</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41.199999999999996</v>
       </c>
       <c r="M8" s="5">
@@ -52424,7 +52431,7 @@
       </c>
       <c r="O8" s="18">
         <f t="shared" si="16"/>
-        <v>84.123999999999995</v>
+        <v>90.003999999999991</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="17"/>
@@ -52435,27 +52442,27 @@
         <v>41.199999999999996</v>
       </c>
       <c r="S8" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, </v>
       </c>
       <c r="T8" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 63.544%, </v>
       </c>
       <c r="U8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 55.9%, </v>
       </c>
       <c r="V8" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 90.004%, </v>
       </c>
       <c r="W8" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, </v>
       </c>
       <c r="X8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 74.716%, </v>
       </c>
       <c r="Y8" s="7" t="str">
@@ -52484,18 +52491,18 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="12"/>
-        <v>1.5930000000000002</v>
+        <v>1.0030000000000003</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47.099999999999994</v>
       </c>
       <c r="M9" s="5">
@@ -52508,7 +52515,7 @@
       </c>
       <c r="O9" s="18">
         <f t="shared" si="16"/>
-        <v>85.716999999999999</v>
+        <v>91.006999999999991</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="17"/>
@@ -52519,27 +52526,27 @@
         <v>47.099999999999994</v>
       </c>
       <c r="S9" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, </v>
       </c>
       <c r="T9" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 67.202%, </v>
       </c>
       <c r="U9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 60.325%, </v>
       </c>
       <c r="V9" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 91.007%, </v>
       </c>
       <c r="W9" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, </v>
       </c>
       <c r="X9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 77.253%, </v>
       </c>
       <c r="Y9" s="7" t="str">
@@ -52574,18 +52581,18 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" si="12"/>
-        <v>1.5660000000000001</v>
+        <v>0.98600000000000021</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="13"/>
         <v>2.4940000000000002</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>52.899999999999991</v>
       </c>
       <c r="M10" s="5">
@@ -52598,7 +52605,7 @@
       </c>
       <c r="O10" s="18">
         <f t="shared" si="16"/>
-        <v>87.283000000000001</v>
+        <v>91.992999999999995</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="17"/>
@@ -52609,27 +52616,27 @@
         <v>52.899999999999991</v>
       </c>
       <c r="S10" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, </v>
       </c>
       <c r="T10" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 70.798%, </v>
       </c>
       <c r="U10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 64.675%, </v>
       </c>
       <c r="V10" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 91.993%, </v>
       </c>
       <c r="W10" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, </v>
       </c>
       <c r="X10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 79.747%, </v>
       </c>
       <c r="Y10" s="7" t="str">
@@ -52666,18 +52673,18 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" si="12"/>
-        <v>1.5930000000000002</v>
+        <v>1.0030000000000003</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>58.79999999999999</v>
       </c>
       <c r="M11" s="5">
@@ -52690,7 +52697,7 @@
       </c>
       <c r="O11" s="18">
         <f t="shared" si="16"/>
-        <v>88.876000000000005</v>
+        <v>92.995999999999995</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="17"/>
@@ -52701,27 +52708,27 @@
         <v>58.79999999999999</v>
       </c>
       <c r="S11" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, </v>
       </c>
       <c r="T11" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 74.456%, </v>
       </c>
       <c r="U11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 69.1%, </v>
       </c>
       <c r="V11" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 92.996%, </v>
       </c>
       <c r="W11" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, </v>
       </c>
       <c r="X11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 82.284%, </v>
       </c>
       <c r="Y11" s="7" t="str">
@@ -52752,18 +52759,18 @@
       </c>
       <c r="I12" s="7">
         <f t="shared" si="12"/>
-        <v>1.5930000000000002</v>
+        <v>1.0030000000000003</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="13"/>
         <v>2.5370000000000004</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64.699999999999989</v>
       </c>
       <c r="M12" s="5">
@@ -52776,7 +52783,7 @@
       </c>
       <c r="O12" s="18">
         <f t="shared" si="16"/>
-        <v>90.469000000000008</v>
+        <v>93.998999999999995</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="17"/>
@@ -52787,27 +52794,27 @@
         <v>64.699999999999989</v>
       </c>
       <c r="S12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, </v>
       </c>
       <c r="T12" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 78.114%, </v>
       </c>
       <c r="U12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 73.525%, </v>
       </c>
       <c r="V12" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 93.999%, </v>
       </c>
       <c r="W12" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, </v>
       </c>
       <c r="X12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 84.821%, </v>
       </c>
       <c r="Y12" s="7" t="str">
@@ -52841,18 +52848,18 @@
       </c>
       <c r="I13" s="7">
         <f t="shared" si="12"/>
-        <v>1.7010000000000001</v>
+        <v>1.0710000000000002</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="13"/>
         <v>2.7090000000000001</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70.999999999999986</v>
       </c>
       <c r="M13" s="5">
@@ -52865,7 +52872,7 @@
       </c>
       <c r="O13" s="18">
         <f t="shared" si="16"/>
-        <v>92.17</v>
+        <v>95.07</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="17"/>
@@ -52876,27 +52883,27 @@
         <v>70.999999999999986</v>
       </c>
       <c r="S13" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, </v>
       </c>
       <c r="T13" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 82.02%, </v>
       </c>
       <c r="U13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 78.25%, </v>
       </c>
       <c r="V13" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 95.07%, </v>
       </c>
       <c r="W13" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, </v>
       </c>
       <c r="X13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 87.53%, </v>
       </c>
       <c r="Y13" s="7" t="str">
@@ -52930,18 +52937,18 @@
       </c>
       <c r="I14" s="7">
         <f t="shared" si="12"/>
-        <v>1.7550000000000001</v>
+        <v>1.1050000000000002</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="13"/>
         <v>2.7950000000000004</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>77.499999999999986</v>
       </c>
       <c r="M14" s="5">
@@ -52954,7 +52961,7 @@
       </c>
       <c r="O14" s="18">
         <f t="shared" si="16"/>
-        <v>93.924999999999997</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="17"/>
@@ -52965,27 +52972,27 @@
         <v>77.499999999999986</v>
       </c>
       <c r="S14" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, </v>
       </c>
       <c r="T14" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 86.05%, </v>
       </c>
       <c r="U14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 83.125%, </v>
       </c>
       <c r="V14" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 96.175%, </v>
       </c>
       <c r="W14" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, </v>
       </c>
       <c r="X14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 90.325%, </v>
       </c>
       <c r="Y14" s="7" t="str">
@@ -53016,18 +53023,18 @@
       </c>
       <c r="I15" s="7">
         <f t="shared" si="12"/>
-        <v>1.8900000000000001</v>
+        <v>1.1900000000000004</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="13"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84.499999999999986</v>
       </c>
       <c r="M15" s="5">
@@ -53040,7 +53047,7 @@
       </c>
       <c r="O15" s="18">
         <f t="shared" si="16"/>
-        <v>95.814999999999998</v>
+        <v>97.364999999999995</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="17"/>
@@ -53051,27 +53058,27 @@
         <v>84.499999999999986</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, </v>
       </c>
       <c r="T15" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 90.39%, </v>
       </c>
       <c r="U15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 88.375%, </v>
       </c>
       <c r="V15" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 97.365%, </v>
       </c>
       <c r="W15" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, </v>
       </c>
       <c r="X15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 93.335%, </v>
       </c>
       <c r="Y15" s="7" t="str">
@@ -53102,18 +53109,18 @@
       </c>
       <c r="I16" s="7">
         <f t="shared" si="12"/>
-        <v>1.9980000000000002</v>
+        <v>1.2580000000000005</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="13"/>
         <v>3.1820000000000004</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91.899999999999991</v>
       </c>
       <c r="M16" s="5">
@@ -53126,7 +53133,7 @@
       </c>
       <c r="O16" s="18">
         <f t="shared" si="16"/>
-        <v>97.813000000000002</v>
+        <v>98.62299999999999</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="17"/>
@@ -53137,27 +53144,27 @@
         <v>91.899999999999991</v>
       </c>
       <c r="S16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, </v>
       </c>
       <c r="T16" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 94.978%, </v>
       </c>
       <c r="U16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 93.925%, </v>
       </c>
       <c r="V16" s="7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, </v>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 98.623%, </v>
       </c>
       <c r="W16" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, </v>
       </c>
       <c r="X16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 96.517%, </v>
       </c>
       <c r="Y16" s="7" t="str">
@@ -53188,18 +53195,18 @@
       </c>
       <c r="I17" s="7">
         <f t="shared" si="12"/>
-        <v>2.1869999999999998</v>
+        <v>1.3770000000000002</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="13"/>
         <v>3.4830000000000001</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
       <c r="M17" s="5">
@@ -53212,7 +53219,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="16"/>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="17"/>
@@ -53223,12 +53230,12 @@
         <v>99.999999999999986</v>
       </c>
       <c r="S17" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;L17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f>"rgba(var(--fade-r), var(--fade-g), var(--fade-b), "&amp;$E17&amp;") "&amp;M17&amp;"%"</f>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;M17&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="U17" s="7" t="str">
         <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E17&amp;") "&amp;N17&amp;"%"</f>
@@ -53251,14 +53258,14 @@
         <v>rgba(0,0,0, 0) 100%</v>
       </c>
     </row>
-    <row r="20" spans="4:25" ht="408" customHeight="1">
+    <row r="20" spans="4:25" ht="171" customHeight="1">
       <c r="S20" s="3" t="str">
         <f t="shared" ref="S20:X20" si="19">_xlfn.CONCAT(S2:S17)</f>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 0%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 8.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 15.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 22.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 29%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 35.3%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 41.2%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 47.1%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 52.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 58.8%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 64.7%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 71%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 77.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 84.5%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 91.9%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 8.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 15.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 22.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 29%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 35.3%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 41.2%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 47.1%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 52.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 58.8%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 64.7%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 71%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 77.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 84.5%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 91.9%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="T20" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>rgba(var(--fade-r), var(--fade-g), var(--fade-b), 1) 38%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.987) 43.022%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.951) 47.61%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.896) 51.95%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.825) 55.98%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.741) 59.886%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.648) 63.544%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.55) 67.202%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.45) 70.798%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.352) 74.456%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.259) 78.114%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.175) 82.02%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.104) 86.05%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.049) 90.39%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0.013) 94.978%, rgba(var(--fade-r), var(--fade-g), var(--fade-b), 0) 100%</v>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 43.022%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 47.61%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 51.95%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 55.98%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 59.886%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 63.544%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 67.202%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 70.798%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 74.456%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 78.114%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 82.02%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 86.05%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 90.39%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 94.978%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="U20" s="3" t="str">
         <f t="shared" ref="U20" si="20">_xlfn.CONCAT(U2:U17)</f>
@@ -53266,7 +53273,7 @@
       </c>
       <c r="V20" s="12" t="str">
         <f t="shared" si="19"/>
-        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 73%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 75.187%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 77.185%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 79.075%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 80.83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 82.531%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 84.124%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 85.717%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 87.283%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 88.876%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 90.469%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 92.17%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 93.925%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 95.815%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 97.813%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.987) 84.377%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.951) 85.635%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.896) 86.825%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.825) 87.93%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.741) 89.001%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.648) 90.004%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 91.007%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 91.993%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.352) 92.996%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.259) 93.999%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.175) 95.07%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.104) 96.175%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.049) 97.365%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.013) 98.623%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="W20" s="3" t="str">
         <f t="shared" si="19"/>
@@ -53282,7 +53289,628 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9FF98-AE06-5442-AFD3-AF4428AA5174}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" style="2" customWidth="1"/>
+    <col min="11" max="15" width="8" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="38.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="41.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="45.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="45.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="44.1640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="46.33203125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="36">
+      <c r="A1" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>3593</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>3607</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>3594</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>3595</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>3610</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>3596</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>3597</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>3598</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>3599</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>3600</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3601</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="5">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <f>ROUND(A2/SUM(A2:B2)*100,0)</f>
+        <v>38</v>
+      </c>
+      <c r="H2" s="14">
+        <f>ROUND(A11/SUM(A11:B11)*100,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I2" s="14">
+        <f>ROUND(A5/SUM(A5:B5)*100,0)</f>
+        <v>83</v>
+      </c>
+      <c r="J2" s="14">
+        <f>ROUND(A8/SUM(A8:B8)*100,0)</f>
+        <v>57</v>
+      </c>
+      <c r="K2" s="5">
+        <f>F2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f>G2</f>
+        <v>38</v>
+      </c>
+      <c r="M2" s="5">
+        <f>H2</f>
+        <v>25</v>
+      </c>
+      <c r="N2" s="18">
+        <f>I2</f>
+        <v>83</v>
+      </c>
+      <c r="O2" s="20">
+        <f>J2</f>
+        <v>57</v>
+      </c>
+      <c r="Q2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
+      </c>
+      <c r="R2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, </v>
+      </c>
+      <c r="S2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, </v>
+      </c>
+      <c r="T2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, </v>
+      </c>
+      <c r="U2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
+      </c>
+      <c r="V2" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;O2&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="8"/>
+      <c r="D3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="13">
+        <f>ROUND(E2-D3,3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:J7" si="0">$F3*(1-G$2/100)</f>
+        <v>12.4</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="K3" s="5">
+        <f>F3+K2</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <f>G3+L2</f>
+        <v>50.4</v>
+      </c>
+      <c r="M3" s="5">
+        <f>H3+M2</f>
+        <v>40</v>
+      </c>
+      <c r="N3" s="18">
+        <f>I3+N2</f>
+        <v>86.4</v>
+      </c>
+      <c r="O3" s="20">
+        <f>J3+O2</f>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Q3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, </v>
+      </c>
+      <c r="R3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 50.4%, </v>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;M3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 40%, </v>
+      </c>
+      <c r="T3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;N3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 86.4%, </v>
+      </c>
+      <c r="U3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, </v>
+      </c>
+      <c r="V3" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;O3&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 65.6%, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="36">
+      <c r="A4" s="9" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E7" si="1">ROUND(E3-D4,3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="7">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>4.080000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>10.32</v>
+      </c>
+      <c r="K4" s="5">
+        <f>F4+K3</f>
+        <v>44</v>
+      </c>
+      <c r="L4" s="5">
+        <f>G4+L3</f>
+        <v>65.28</v>
+      </c>
+      <c r="M4" s="5">
+        <f>H4+M3</f>
+        <v>58</v>
+      </c>
+      <c r="N4" s="18">
+        <f>I4+N3</f>
+        <v>90.48</v>
+      </c>
+      <c r="O4" s="20">
+        <f>J4+O3</f>
+        <v>75.919999999999987</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;K4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, </v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;L4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 65.28%, </v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;M4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 58%, </v>
+      </c>
+      <c r="T4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;N4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 90.48%, </v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;K4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, </v>
+      </c>
+      <c r="V4" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;O4&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 75.92%, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="10">
+        <v>96</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="7">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0400000000000005</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>5.16</v>
+      </c>
+      <c r="K5" s="5">
+        <f>F5+K4</f>
+        <v>56</v>
+      </c>
+      <c r="L5" s="5">
+        <f>G5+L4</f>
+        <v>72.72</v>
+      </c>
+      <c r="M5" s="5">
+        <f>H5+M4</f>
+        <v>67</v>
+      </c>
+      <c r="N5" s="18">
+        <f>I5+N4</f>
+        <v>92.52000000000001</v>
+      </c>
+      <c r="O5" s="20">
+        <f>J5+O4</f>
+        <v>81.079999999999984</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;K5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, </v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;L5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 72.72%, </v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;M5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 67%, </v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;N5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 92.52%, </v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;K5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, </v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;O5&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 81.08%, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="D6" s="7">
+        <f>D4</f>
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="7">
+        <f>F4</f>
+        <v>24</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.080000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>10.32</v>
+      </c>
+      <c r="K6" s="5">
+        <f>F6+K5</f>
+        <v>80</v>
+      </c>
+      <c r="L6" s="5">
+        <f>G6+L5</f>
+        <v>87.6</v>
+      </c>
+      <c r="M6" s="5">
+        <f>H6+M5</f>
+        <v>85</v>
+      </c>
+      <c r="N6" s="18">
+        <f>I6+N5</f>
+        <v>96.600000000000009</v>
+      </c>
+      <c r="O6" s="20">
+        <f>J6+O5</f>
+        <v>91.399999999999977</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;K6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, </v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;L6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 87.6%, </v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;M6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 85%, </v>
+      </c>
+      <c r="T6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;N6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 96.6%, </v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;K6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, </v>
+      </c>
+      <c r="V6" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;O6&amp;"%, "</f>
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 91.4%, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="36">
+      <c r="A7" s="9" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D7" s="7">
+        <f>D3</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f>F3</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="K7" s="5">
+        <f>F7+K6</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="5">
+        <f>G7+L6</f>
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
+        <f>H7+M6</f>
+        <v>100</v>
+      </c>
+      <c r="N7" s="18">
+        <f>I7+N6</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="O7" s="20">
+        <f>J7+O6</f>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;K7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;L7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;M7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="T7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;N7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;K7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E7&amp;") "&amp;O7&amp;"%"</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="10">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="96">
+      <c r="A10" s="36" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>3612</v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" ref="Q10:V10" si="2">_xlfn.CONCAT(Q2:Q7)</f>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 50.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 65.28%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 72.72%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 87.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 40%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 58%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 67%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 85%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 86.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 90.48%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 92.52%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 96.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+      <c r="V10" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 65.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 75.92%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 81.08%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 91.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="24">
+      <c r="B13" s="36" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="176" customHeight="1"/>
+    <row r="20" ht="171" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/calc-ref.xlsx
+++ b/src/calc-ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/VLOOK/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA657A2-879A-8142-AF60-463C32D28C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B42379-E89A-324D-A6B1-C38F90412EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rang-calc" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="table" sheetId="1" r:id="rId3"/>
     <sheet name="linerGradientFade" sheetId="6" r:id="rId4"/>
     <sheet name="linerGradientFade 2" sheetId="7" r:id="rId5"/>
+    <sheet name="RGBA转换为十六进制" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="3617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="3630">
   <si>
     <t>HEX</t>
   </si>
@@ -11200,12 +11223,126 @@
     <t>计算结果D1</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>完整 rgba() 的内容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>透明度的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制小数值</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制格式</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .3)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .15)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .1)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .8)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .4)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(255, 255, 255, .3)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .2)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, .6)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(255, 255, 255, .2)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgba(255, 255, 255, .1)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11346,26 +11483,8 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="5"/>
       <name val="Consolas Regular"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF00B050"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Microsoft YaHei Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -11379,8 +11498,61 @@
       <name val="Microsoft YaHei Regular"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11396,6 +11568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11429,7 +11607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11541,18 +11719,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -53299,7 +53495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9FF98-AE06-5442-AFD3-AF4428AA5174}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
@@ -53442,19 +53638,19 @@
         <v>57</v>
       </c>
       <c r="Q2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
+        <f t="shared" ref="Q2:T6" si="0">"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;K2&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, </v>
       </c>
       <c r="R2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;L2&amp;"%, "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, </v>
       </c>
       <c r="S2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;M2&amp;"%, "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, </v>
       </c>
       <c r="T2" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E2&amp;") "&amp;N2&amp;"%, "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, </v>
       </c>
       <c r="U2" s="7" t="str">
@@ -53479,55 +53675,55 @@
         <v>20</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:J7" si="0">$F3*(1-G$2/100)</f>
+        <f t="shared" ref="G3:J7" si="1">$F3*(1-G$2/100)</f>
         <v>12.4</v>
       </c>
       <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:O7" si="2">F3+K2</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="2"/>
+        <v>50.4</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N3" s="18">
+        <f t="shared" si="2"/>
+        <v>86.4</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="2"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Q3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I3" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, </v>
+      </c>
+      <c r="R3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3.4000000000000008</v>
-      </c>
-      <c r="J3" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 50.4%, </v>
+      </c>
+      <c r="S3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="K3" s="5">
-        <f>F3+K2</f>
-        <v>20</v>
-      </c>
-      <c r="L3" s="5">
-        <f>G3+L2</f>
-        <v>50.4</v>
-      </c>
-      <c r="M3" s="5">
-        <f>H3+M2</f>
-        <v>40</v>
-      </c>
-      <c r="N3" s="18">
-        <f>I3+N2</f>
-        <v>86.4</v>
-      </c>
-      <c r="O3" s="20">
-        <f>J3+O2</f>
-        <v>65.599999999999994</v>
-      </c>
-      <c r="Q3" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;K3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, </v>
-      </c>
-      <c r="R3" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;L3&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 50.4%, </v>
-      </c>
-      <c r="S3" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;M3&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 40%, </v>
       </c>
       <c r="T3" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E3&amp;") "&amp;N3&amp;"%, "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 86.4%, </v>
       </c>
       <c r="U3" s="7" t="str">
@@ -53550,62 +53746,62 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E7" si="1">ROUND(E3-D4,3)</f>
+        <f t="shared" ref="E4:E7" si="3">ROUND(E3-D4,3)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F4" s="7">
         <v>24</v>
       </c>
       <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>4.080000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="1"/>
+        <v>10.32</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>65.28</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" si="2"/>
+        <v>90.48</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="2"/>
+        <v>75.919999999999987</v>
+      </c>
+      <c r="Q4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>14.879999999999999</v>
-      </c>
-      <c r="H4" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, </v>
+      </c>
+      <c r="R4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 65.28%, </v>
+      </c>
+      <c r="S4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4.080000000000001</v>
-      </c>
-      <c r="J4" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 58%, </v>
+      </c>
+      <c r="T4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10.32</v>
-      </c>
-      <c r="K4" s="5">
-        <f>F4+K3</f>
-        <v>44</v>
-      </c>
-      <c r="L4" s="5">
-        <f>G4+L3</f>
-        <v>65.28</v>
-      </c>
-      <c r="M4" s="5">
-        <f>H4+M3</f>
-        <v>58</v>
-      </c>
-      <c r="N4" s="18">
-        <f>I4+N3</f>
-        <v>90.48</v>
-      </c>
-      <c r="O4" s="20">
-        <f>J4+O3</f>
-        <v>75.919999999999987</v>
-      </c>
-      <c r="Q4" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;K4&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, </v>
-      </c>
-      <c r="R4" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;L4&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 65.28%, </v>
-      </c>
-      <c r="S4" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;M4&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 58%, </v>
-      </c>
-      <c r="T4" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E4&amp;") "&amp;N4&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 90.48%, </v>
       </c>
       <c r="U4" s="7" t="str">
@@ -53628,62 +53824,62 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="F5" s="7">
         <v>12</v>
       </c>
       <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0400000000000005</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.16</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="2"/>
+        <v>72.72</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="2"/>
+        <v>92.52000000000001</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="2"/>
+        <v>81.079999999999984</v>
+      </c>
+      <c r="Q5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7.4399999999999995</v>
-      </c>
-      <c r="H5" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, </v>
+      </c>
+      <c r="R5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 72.72%, </v>
+      </c>
+      <c r="S5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2.0400000000000005</v>
-      </c>
-      <c r="J5" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 67%, </v>
+      </c>
+      <c r="T5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5.16</v>
-      </c>
-      <c r="K5" s="5">
-        <f>F5+K4</f>
-        <v>56</v>
-      </c>
-      <c r="L5" s="5">
-        <f>G5+L4</f>
-        <v>72.72</v>
-      </c>
-      <c r="M5" s="5">
-        <f>H5+M4</f>
-        <v>67</v>
-      </c>
-      <c r="N5" s="18">
-        <f>I5+N4</f>
-        <v>92.52000000000001</v>
-      </c>
-      <c r="O5" s="20">
-        <f>J5+O4</f>
-        <v>81.079999999999984</v>
-      </c>
-      <c r="Q5" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;K5&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, </v>
-      </c>
-      <c r="R5" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;L5&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 72.72%, </v>
-      </c>
-      <c r="S5" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;M5&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 67%, </v>
-      </c>
-      <c r="T5" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E5&amp;") "&amp;N5&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 92.52%, </v>
       </c>
       <c r="U5" s="7" t="str">
@@ -53701,7 +53897,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="F6" s="7">
@@ -53709,55 +53905,55 @@
         <v>24</v>
       </c>
       <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.080000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>10.32</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>87.6</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="2"/>
+        <v>96.600000000000009</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="2"/>
+        <v>91.399999999999977</v>
+      </c>
+      <c r="Q6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>14.879999999999999</v>
-      </c>
-      <c r="H6" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, </v>
+      </c>
+      <c r="R6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I6" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 87.6%, </v>
+      </c>
+      <c r="S6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4.080000000000001</v>
-      </c>
-      <c r="J6" s="7">
+        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 85%, </v>
+      </c>
+      <c r="T6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10.32</v>
-      </c>
-      <c r="K6" s="5">
-        <f>F6+K5</f>
-        <v>80</v>
-      </c>
-      <c r="L6" s="5">
-        <f>G6+L5</f>
-        <v>87.6</v>
-      </c>
-      <c r="M6" s="5">
-        <f>H6+M5</f>
-        <v>85</v>
-      </c>
-      <c r="N6" s="18">
-        <f>I6+N5</f>
-        <v>96.600000000000009</v>
-      </c>
-      <c r="O6" s="20">
-        <f>J6+O5</f>
-        <v>91.399999999999977</v>
-      </c>
-      <c r="Q6" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;K6&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, </v>
-      </c>
-      <c r="R6" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;L6&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 87.6%, </v>
-      </c>
-      <c r="S6" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;M6&amp;"%, "</f>
-        <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 85%, </v>
-      </c>
-      <c r="T6" s="7" t="str">
-        <f>"rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), "&amp;$E6&amp;") "&amp;N6&amp;"%, "</f>
         <v xml:space="preserve">rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 96.6%, </v>
       </c>
       <c r="U6" s="7" t="str">
@@ -53781,7 +53977,7 @@
         <v>0.2</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="7">
@@ -53789,39 +53985,39 @@
         <v>20</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="K7" s="5">
-        <f>F7+K6</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L7" s="5">
-        <f>G7+L6</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="M7" s="5">
-        <f>H7+M6</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N7" s="18">
-        <f>I7+N6</f>
+        <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
       <c r="O7" s="20">
-        <f>J7+O6</f>
+        <f t="shared" si="2"/>
         <v>99.999999999999972</v>
       </c>
       <c r="Q7" s="7" t="str">
@@ -53865,27 +54061,27 @@
         <v>3612</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f t="shared" ref="Q10:V10" si="2">_xlfn.CONCAT(Q2:Q7)</f>
+        <f t="shared" ref="Q10:V10" si="4">_xlfn.CONCAT(Q2:Q7)</f>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 38%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 50.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 65.28%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 72.72%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 87.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 25%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 40%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 58%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 67%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 85%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="T10" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 83%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 86.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 90.48%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 92.52%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 96.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="U10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 0%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 20%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 44%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 56%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 80%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
       <c r="V10" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 1) 57%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.8) 65.6%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.55) 75.92%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.45) 81.08%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0.2) 91.4%, rgba(var(--pn-fade-r), var(--pn-fade-g), var(--pn-fade-b), 0) 100%</v>
       </c>
     </row>
@@ -53914,4 +54110,228 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D190CE-6A32-E047-B36E-79C0CFE7A763}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="41"/>
+    <col min="3" max="3" width="31.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="40" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="44" t="str">
+        <f>TEXT(DEC2HEX(ROUND(A2 * 255, 0)), "00")</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="45" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="41" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A7, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#0000001A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="41" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="44" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A8, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#00000026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="41" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C9" s="44" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A9, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#00000033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="41" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A10, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#0000004D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="41" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="44" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A11, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#00000066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="41" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="44" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A12, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#00000099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="41" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A13, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#000000CC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="41" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C14" s="44" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A14, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#FFFFFF1A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="41" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C15" s="44" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A15, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#FFFFFF33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="41" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C16" s="44" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.LET(
+    _xlpm.rgba_str, SUBSTITUTE(SUBSTITUTE(A16, "rgba(", ""), ")", ""),
+    _xlpm.parts, _xlfn.TEXTSPLIT(_xlpm.rgba_str, ", "),
+    _xlpm.red, VALUE(INDEX(_xlpm.parts,1)),
+    _xlpm.green, VALUE(INDEX(_xlpm.parts,2)),
+    _xlpm.blue, VALUE(INDEX(_xlpm.parts,3)),
+    _xlpm.alpha, VALUE(INDEX(_xlpm.parts,4)),
+    "#" &amp; DEC2HEX(_xlpm.red,2) &amp; DEC2HEX(_xlpm.green,2) &amp; DEC2HEX(_xlpm.blue,2) &amp; DEC2HEX(ROUND(_xlpm.alpha*255,0),2)
+)</f>
+        <v>#FFFFFF4D</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>